--- a/カレンダー_結合テスト.xlsx
+++ b/カレンダー_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE11ED3-939C-47B1-9901-1095C6F1F7A6}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD64BFD3-7C0E-4E0F-935E-FDA88F952646}"/>
   <bookViews>
-    <workbookView xWindow="3550" yWindow="1260" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="カレンダー" sheetId="3" r:id="rId1"/>
@@ -4594,7 +4594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4646,7 +4646,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4699,7 +4699,7 @@
         <v>220</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>175</v>
@@ -4737,7 +4737,7 @@
         <v>224</v>
       </c>
       <c r="G10" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>175</v>
@@ -4775,7 +4775,7 @@
         <v>234</v>
       </c>
       <c r="G12" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>175</v>
@@ -4813,7 +4813,7 @@
         <v>227</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>175</v>
@@ -4849,7 +4849,7 @@
         <v>229</v>
       </c>
       <c r="G16" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>175</v>
